--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giddu/Documents/Jobs/Cohanzick/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giddu/Documents/Jobs/Cohanzick/kawasakininja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB9E34B-220D-434F-BB3D-A492D62E72BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FAF058-E2A4-F247-9B61-9F4603817378}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{AB91BADA-6936-D644-989E-B31981AB3C14}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19740" xr2:uid="{AB91BADA-6936-D644-989E-B31981AB3C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>State</t>
   </si>
@@ -105,36 +100,6 @@
   </si>
   <si>
     <t>4450 Creekside Road Birmingham, Alabama 35244</t>
-  </si>
-  <si>
-    <t>AMC Classic Lorna Ridge 10</t>
-  </si>
-  <si>
-    <t>3443 Lorna Ridge Road Birmingham, Alabama 35216</t>
-  </si>
-  <si>
-    <t>AMC Marktplatz 10</t>
-  </si>
-  <si>
-    <t>1950 Marketplatz Center Southwest Cullman, Alabama 35055</t>
-  </si>
-  <si>
-    <t>AMC Jubilee Square 12</t>
-  </si>
-  <si>
-    <t>6896 Us 90 Daphne, Alabama 36526</t>
-  </si>
-  <si>
-    <t>AMC Decatur 12</t>
-  </si>
-  <si>
-    <t>1801 Beltine Rd. Sw Decatur, Alabama 35601</t>
-  </si>
-  <si>
-    <t>AMC Dothan Pavilion 12</t>
-  </si>
-  <si>
-    <t>4883 Montgomery Highway Dothan, Alabama 36303</t>
   </si>
 </sst>
 </file>
@@ -527,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D44E91-7AC3-8C40-9F1B-F69CAE49A84C}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A6" sqref="A6:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,165 +695,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
